--- a/DATA_Agro_seguimiento_3_11.xlsx
+++ b/DATA_Agro_seguimiento_3_11.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D978B3B-B6B8-46C0-A35F-35BC99089A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD911B2D-ADDE-48DF-B566-2A29848A270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4C11E770-CDEF-4BE2-A1B8-ADED6EF3E895}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4C11E770-CDEF-4BE2-A1B8-ADED6EF3E895}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Chile" sheetId="2" r:id="rId1"/>
+    <sheet name="Guatemala" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaciónDeDatos_Estado_Producto">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Estado_Producto1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Estado_Variables">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Estado_Variables1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,8 +29,10 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
         <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="116">
   <si>
     <t>AGROSTAT</t>
   </si>
@@ -366,9 +371,6 @@
     <t>AGROGESTIÓN</t>
   </si>
   <si>
-    <t>Componente</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATA </t>
   </si>
   <si>
@@ -394,6 +396,9 @@
   </si>
   <si>
     <t>importaciones</t>
+  </si>
+  <si>
+    <t>Colecciones</t>
   </si>
 </sst>
 </file>
@@ -520,328 +525,158 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -864,6 +699,263 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1035,6 +1127,25 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1076,6 +1187,200 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1199,16 +1504,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1 2 2" pivot="0" table="0" count="3" xr9:uid="{C78DE6DC-34ED-4C64-A757-3B2D12339A00}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="3" xr9:uid="{AA78FA1F-0F69-43F9-8330-69397F64B35D}">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="65"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 3" pivot="0" table="0" count="3" xr9:uid="{3C8E5722-84BC-4297-935B-F67FD2CFD813}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1444,6 +1749,173 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Estado Producto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E54BC1-BD6B-420A-BF9D-96C2CFDF0787}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D5CCBA2-9DA3-4B8B-8EA0-81C5776E71B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Estado Producto 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3694016" y="79374"/>
+              <a:ext cx="1509713" cy="1189374"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CL" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2555875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>984249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144462</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Estado Variables 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BC23C5-7D58-4F56-ACF5-42120B583EEA}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3BA2DF0C-D637-495E-93CC-EF59B3B3E062}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Estado Variables 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5721254" y="49213"/>
+              <a:ext cx="1651480" cy="1240173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CL" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Estado_Producto" xr10:uid="{840E9447-9FF7-46F1-9D68-9B284C9BF8C3}" sourceName="Estado Producto">
   <extLst>
@@ -1464,10 +1936,37 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Estado_Producto1" xr10:uid="{A17E0F81-0D1D-4FCD-85D2-347A25FF2376}" sourceName="Estado Producto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Estado_Variables1" xr10:uid="{C6350BE4-C835-46E8-B3DE-D1373A6D5C33}" sourceName="Estado Variables">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Estado Producto" xr10:uid="{4B2A7DC1-83D8-446C-9436-8EB69282CAE6}" cache="SegmentaciónDeDatos_Estado_Producto" caption="Estado Producto" columnCount="2" style="Estilo de segmentación de datos 2" rowHeight="241300"/>
   <slicer name="Estado Variables" xr10:uid="{36A1F9B6-F2B2-4047-BE62-EA2B36FC416B}" cache="SegmentaciónDeDatos_Estado_Variables" caption="Estado Variables" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Estado Producto 1" xr10:uid="{2322CAA0-276F-4F4E-B866-551C9918F4DE}" cache="SegmentaciónDeDatos_Estado_Producto1" caption="Estado Producto" columnCount="2" style="Estilo de segmentación de datos 2" rowHeight="241300"/>
+  <slicer name="Estado Variables 1" xr10:uid="{6ADA5B93-7BF5-48AD-B42B-82794654BE57}" cache="SegmentaciónDeDatos_Estado_Variables1" caption="Estado Variables" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -1476,15 +1975,34 @@
   <autoFilter ref="B10:K83" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{9FCEE587-D097-4CD5-9E23-CBA7CF333ED6}" name="N°" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{7ECF367C-B617-4478-BDCD-CEDB3DF56165}" name="DATA " dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C7508CA6-6908-4EB2-99B2-30F465983231}" name="Componente" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{684387D4-D291-47CB-BC9B-7D57DDD2081F}" name="Producto" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{1B4E8AE1-4CE5-4F74-ADD0-D0E3E6D23604}" name="Estado Producto" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{9A8F0F03-343A-4F94-96C3-38EB06332471}" name="Variable 1" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{1CF6EDAF-1AA7-40C8-ACC8-74CB35C7107A}" name="Variable 2" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{991F33BF-EF72-4C56-9F4C-F1C05DD84244}" name="Estado Variables" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{1F292927-35D2-4B74-AF9F-93297B2E869A}" name="Lider" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{93375C1C-18F6-4B62-931B-CD0A62CA1269}" name="Columna1" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{7ECF367C-B617-4478-BDCD-CEDB3DF56165}" name="DATA " dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{C7508CA6-6908-4EB2-99B2-30F465983231}" name="Colecciones" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{684387D4-D291-47CB-BC9B-7D57DDD2081F}" name="Producto" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1B4E8AE1-4CE5-4F74-ADD0-D0E3E6D23604}" name="Estado Producto" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{9A8F0F03-343A-4F94-96C3-38EB06332471}" name="Variable 1" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{1CF6EDAF-1AA7-40C8-ACC8-74CB35C7107A}" name="Variable 2" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{991F33BF-EF72-4C56-9F4C-F1C05DD84244}" name="Estado Variables" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{1F292927-35D2-4B74-AF9F-93297B2E869A}" name="Lider" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{93375C1C-18F6-4B62-931B-CD0A62CA1269}" name="Columna1" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C280E288-AA64-4EFC-B4E3-8FEC23A54597}" name="Tabla23" displayName="Tabla23" ref="B10:K83" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B10:K83" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0EF1F280-7383-4EC0-A70D-5B0C3E446BEF}" name="N°" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{CB55E673-32BE-47B6-B802-67F1C00DCFD3}" name="DATA " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B952E5E5-C5E2-4741-B37B-59BE7542973F}" name="Colecciones" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{62313198-C30F-4FC7-8A7C-F41203C6B3E4}" name="Producto" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D3EAC484-3F7E-4F78-BD9A-E524536B9FFB}" name="Estado Producto" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FFA7314E-2065-4A55-BC3A-DBB9C1552A7E}" name="Variable 1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{450EFE12-CE13-461D-8329-A2C90C0D2633}" name="Variable 2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5E2828DE-49BC-4024-BD6C-E11E2BB5FA59}" name="Estado Variables" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FD5A60FC-D0D5-48B6-A94A-D12C2CB26A9C}" name="Lider" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A5F1F4A9-9209-4F06-8C13-12ECBD816511}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3C2C0-1C42-4C1E-9F72-A328D2452D47}">
   <dimension ref="B10:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72:I82"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1802,8 +2320,8 @@
     <col min="5" max="5" width="46.1796875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" style="6" customWidth="1"/>
     <col min="7" max="7" width="33.54296875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="41.453125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" style="6" customWidth="1"/>
     <col min="11" max="11" width="55" style="6" customWidth="1"/>
     <col min="12" max="16384" width="10.7265625" style="6"/>
@@ -1814,10 +2332,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1841,12 +2359,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -1873,12 +2391,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -1905,12 +2423,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -1937,12 +2455,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -1969,12 +2487,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
@@ -2001,12 +2519,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
@@ -2038,7 +2556,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
@@ -2064,7 +2582,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
@@ -2094,7 +2612,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
@@ -2124,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
@@ -2154,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
@@ -2184,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
@@ -2214,7 +2732,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>0</v>
@@ -2244,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
@@ -2274,7 +2792,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>0</v>
@@ -2304,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>0</v>
@@ -2334,7 +2852,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>0</v>
@@ -2364,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>0</v>
@@ -2394,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>0</v>
@@ -2419,12 +2937,12 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>0</v>
@@ -2456,7 +2974,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>0</v>
@@ -2484,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>0</v>
@@ -2512,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>0</v>
@@ -2540,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>0</v>
@@ -2568,7 +3086,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>0</v>
@@ -2596,7 +3114,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>0</v>
@@ -2624,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>0</v>
@@ -2652,7 +3170,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>0</v>
@@ -2680,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>0</v>
@@ -2708,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>0</v>
@@ -2736,7 +3254,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>0</v>
@@ -2764,7 +3282,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>0</v>
@@ -2792,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>0</v>
@@ -2820,7 +3338,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>0</v>
@@ -2846,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>0</v>
@@ -2872,7 +3390,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>0</v>
@@ -2898,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>0</v>
@@ -2910,7 +3428,7 @@
         <v>61</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
@@ -2924,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>0</v>
@@ -2950,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>0</v>
@@ -2976,7 +3494,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>0</v>
@@ -3002,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>0</v>
@@ -3028,7 +3546,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>0</v>
@@ -3054,7 +3572,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>0</v>
@@ -3080,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>0</v>
@@ -3106,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>0</v>
@@ -3132,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>0</v>
@@ -3158,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>0</v>
@@ -3184,7 +3702,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>0</v>
@@ -3210,7 +3728,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>0</v>
@@ -3240,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>0</v>
@@ -3268,7 +3786,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>104</v>
@@ -3298,7 +3816,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>104</v>
@@ -3328,7 +3846,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>104</v>
@@ -3358,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>104</v>
@@ -3386,13 +3904,13 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>1</v>
@@ -3401,7 +3919,7 @@
         <v>86</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>1</v>
@@ -3414,13 +3932,13 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>1</v>
@@ -3429,7 +3947,7 @@
         <v>86</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>1</v>
@@ -3442,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>104</v>
@@ -3472,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>104</v>
@@ -3498,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>104</v>
@@ -3524,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>104</v>
@@ -3554,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>105</v>
@@ -3566,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
@@ -3580,7 +4098,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>105</v>
@@ -3605,12 +4123,12 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>105</v>
@@ -3625,7 +4143,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>61</v>
@@ -3638,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>105</v>
@@ -3666,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>105</v>
@@ -3689,12 +4207,12 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>105</v>
@@ -3719,12 +4237,12 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>105</v>
@@ -3752,7 +4270,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>105</v>
@@ -3780,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>105</v>
@@ -3808,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>105</v>
@@ -3831,12 +4349,12 @@
       </c>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>105</v>
@@ -3864,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>105</v>
@@ -3900,75 +4418,75 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I4:I10 I18:I58 I61:I1048576">
-    <cfRule type="cellIs" dxfId="30" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="120" operator="equal">
       <formula>"En investigación"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="121" operator="equal">
       <formula>"Acogida"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I10 I18:I58 I61:I1048576">
-    <cfRule type="cellIs" dxfId="28" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="115" operator="equal">
       <formula>"Está"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="119" operator="equal">
       <formula>"Está"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="26" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="114" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I58 I61:I82">
-    <cfRule type="cellIs" dxfId="25" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F82">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>"listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>"listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I17">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"listo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3988,4 +4506,1966 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E0C3D-7843-4419-B937-391C4D7325A1}">
+  <dimension ref="B10:K83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="55" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="10.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="3">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="3">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="3">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="3">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="3">
+        <v>16</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="3">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="3">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B61" s="3">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B64" s="3">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="3">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="3">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="3">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="3">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="3">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="3">
+        <v>17</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>16</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="3">
+        <v>16</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="3">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="3">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="3">
+        <v>16</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="3">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="3">
+        <v>16</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="3">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="3">
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="3">
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="3">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I4:I10 I18:I58 I61:I1048576">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>"En investigación"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"Acogida"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I10 I18:I58 I61:I1048576">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>"Está"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>"Está"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I58 I61:I82">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"En proceso"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F82">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F17">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I17">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{2E00B298-D623-44E5-B72B-02F82D605974}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>